--- a/python/EXCEL/개설교과목목록_1716796657845.xlsx
+++ b/python/EXCEL/개설교과목목록_1716796657845.xlsx
@@ -2,26 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgs/Desktop/Code/Capstone/Pros/python/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4397FC7-EF8C-CB40-9A51-FF0579F05161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF6D24-0A83-2841-82A1-ECB0191D412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="560" windowWidth="12780" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPEN_LECTURE_2024_2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="OPEN_LECTURE_2024_0" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OPEN_LECTURE_2024_2!$V$1:$V$714</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9426" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9780" uniqueCount="609">
   <si>
     <t>이수구분</t>
   </si>
@@ -1012,13 +1029,1261 @@
   </si>
   <si>
     <t>*회계학의이해</t>
+  </si>
+  <si>
+    <t>C언어기초 1 최준용</t>
+  </si>
+  <si>
+    <t>C언어기초 2 유소월</t>
+  </si>
+  <si>
+    <t>강의평점</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별자 명</t>
+  </si>
+  <si>
+    <t>Applied Chemistry(Applied Chemistry) 1 트란 듀이 탄</t>
+  </si>
+  <si>
+    <t>C언어기초 3 정인숙</t>
+  </si>
+  <si>
+    <t>C언어기초 4 조성현</t>
+  </si>
+  <si>
+    <t>C언어기초 5 조성현</t>
+  </si>
+  <si>
+    <t>C언어기초 6 송영호</t>
+  </si>
+  <si>
+    <t>C언어기초 7 이지현</t>
+  </si>
+  <si>
+    <t>C언어기초 9 정인숙</t>
+  </si>
+  <si>
+    <t>C언어기초 10 송영호</t>
+  </si>
+  <si>
+    <t>C언어기초 11 유소월</t>
+  </si>
+  <si>
+    <t>C언어기초 12 이중열</t>
+  </si>
+  <si>
+    <t>C언어기초 13 이중열</t>
+  </si>
+  <si>
+    <t>C언어기초 14 최성호</t>
+  </si>
+  <si>
+    <t>GIS공간분석중급 1 김유정</t>
+  </si>
+  <si>
+    <t>IoT를위한인공지능반도체 1 이윤경</t>
+  </si>
+  <si>
+    <t>JAVA프로그래밍 1 이지현</t>
+  </si>
+  <si>
+    <t>LED응용공학및실험 1 소홍섭</t>
+  </si>
+  <si>
+    <t>가로설계 1 김현숙</t>
+  </si>
+  <si>
+    <t>건설 CAD 1 김태현</t>
+  </si>
+  <si>
+    <t>건설 CAD 2 유홍열</t>
+  </si>
+  <si>
+    <t>건축구조역학 2 1 박민우</t>
+  </si>
+  <si>
+    <t>건축구조역학 2 2 박민우</t>
+  </si>
+  <si>
+    <t>건축및환경설계의이해 1 장한두</t>
+  </si>
+  <si>
+    <t>건축설비 2 1 이효진</t>
+  </si>
+  <si>
+    <t>건축시공학 2 1 장홍석</t>
+  </si>
+  <si>
+    <t>건축종합설계 1 소승영</t>
+  </si>
+  <si>
+    <t>건축종합설계 2 김윤상</t>
+  </si>
+  <si>
+    <t>건축창의적공학설계입문 1 안규상</t>
+  </si>
+  <si>
+    <t>건축창의적공학설계입문 2 신재선</t>
+  </si>
+  <si>
+    <t>건축환경공학 3 1 정대업</t>
+  </si>
+  <si>
+    <t>건축환경공학 3 2 정대업</t>
+  </si>
+  <si>
+    <t>결정학 1 이한얼</t>
+  </si>
+  <si>
+    <t>경영과창업의이해 1 이강수</t>
+  </si>
+  <si>
+    <t>경영과창업의이해 4 이주열</t>
+  </si>
+  <si>
+    <t>경영과창업의이해 5 박명은</t>
+  </si>
+  <si>
+    <t>고급프로그래밍언어 1 박석우</t>
+  </si>
+  <si>
+    <t>고분자나노구조분석 1(Polymer &amp; Nano Structure Analysis 1) 1 정광운</t>
+  </si>
+  <si>
+    <t>고분자물성 1 나창운</t>
+  </si>
+  <si>
+    <t>고전.명저읽기 3 임성택</t>
+  </si>
+  <si>
+    <t>고전.명저읽기 6 이보형</t>
+  </si>
+  <si>
+    <t>고전.명저읽기 7 이보형</t>
+  </si>
+  <si>
+    <t>고전.명저읽기 14 이예훈</t>
+  </si>
+  <si>
+    <t>공간관리및스마트도시정책론 1 김진</t>
+  </si>
+  <si>
+    <t>공간정보캡스톤디자인 1 김대욱</t>
+  </si>
+  <si>
+    <t>공업수학 1 1 이현규</t>
+  </si>
+  <si>
+    <t>공업수학 1 3 김필기</t>
+  </si>
+  <si>
+    <t>공업수학 1 8 임정은</t>
+  </si>
+  <si>
+    <t>공업수학 1 15 박영기</t>
+  </si>
+  <si>
+    <t>공업수학 1 16 임정은</t>
+  </si>
+  <si>
+    <t>공업열역학 1 유승화</t>
+  </si>
+  <si>
+    <t>공장자동화시스템및실습 1 정영태</t>
+  </si>
+  <si>
+    <t>공학설계기초 2 김민수</t>
+  </si>
+  <si>
+    <t>공학설계기초 4 김민수</t>
+  </si>
+  <si>
+    <t>교통계획실습 1 장태연</t>
+  </si>
+  <si>
+    <t>교통운영 1 한우진</t>
+  </si>
+  <si>
+    <t>구조실험 1 이승호</t>
+  </si>
+  <si>
+    <t>구조역학 2 1 권순덕</t>
+  </si>
+  <si>
+    <t>국토및지역계획 1 김유정</t>
+  </si>
+  <si>
+    <t>글쓰기 10 정화영</t>
+  </si>
+  <si>
+    <t>글쓰기 12 이은선</t>
+  </si>
+  <si>
+    <t>글쓰기 24 박지은</t>
+  </si>
+  <si>
+    <t>글쓰기 25 송지선</t>
+  </si>
+  <si>
+    <t>글쓰기 35 이강하</t>
+  </si>
+  <si>
+    <t>글쓰기 37 김미영</t>
+  </si>
+  <si>
+    <t>글쓰기 47 오규환</t>
+  </si>
+  <si>
+    <t>기계가공과공정설계 1 문상돈</t>
+  </si>
+  <si>
+    <t>기계가공과공정설계 2 문상돈</t>
+  </si>
+  <si>
+    <t>기계제작공정 1 신형곤</t>
+  </si>
+  <si>
+    <t>기초공학 1 김성수</t>
+  </si>
+  <si>
+    <t>기초영어 1 박부순</t>
+  </si>
+  <si>
+    <t>기초화학 1 김현중</t>
+  </si>
+  <si>
+    <t>기초화학 2 이왕로</t>
+  </si>
+  <si>
+    <t>기초화학 5 김기범</t>
+  </si>
+  <si>
+    <t>나노물리학 1 1 이승희</t>
+  </si>
+  <si>
+    <t>나노소재및소자분석 1 이한얼</t>
+  </si>
+  <si>
+    <t>냉동.공기조화및설계 1 박찬우</t>
+  </si>
+  <si>
+    <t>단지계획및지구단위계획 1 장한두</t>
+  </si>
+  <si>
+    <t>대학수학 1 이정승</t>
+  </si>
+  <si>
+    <t>데이터과학기초 2 김철수</t>
+  </si>
+  <si>
+    <t>도시개발론 1 황지욱</t>
+  </si>
+  <si>
+    <t>도시공간조사분석론 1 유성필</t>
+  </si>
+  <si>
+    <t>동역학 3 김필기</t>
+  </si>
+  <si>
+    <t>동역학 4 김필기</t>
+  </si>
+  <si>
+    <t>동역학 5 김필기</t>
+  </si>
+  <si>
+    <t>로봇공학 2 임규만</t>
+  </si>
+  <si>
+    <t>물리화학 1 1 이재우</t>
+  </si>
+  <si>
+    <t>바이오메카닉스활용및실습 1 1 오주환</t>
+  </si>
+  <si>
+    <t>반도체공정 2 이윤경</t>
+  </si>
+  <si>
+    <t>방사선계측 1 서희</t>
+  </si>
+  <si>
+    <t>방사선상호작용 1 서희</t>
+  </si>
+  <si>
+    <t>복합재료설계및풍력활용 1 한나라</t>
+  </si>
+  <si>
+    <t>비판적사고와토론 3 이상일</t>
+  </si>
+  <si>
+    <t>비행동역학 1 노태수</t>
+  </si>
+  <si>
+    <t>사회학의초대 4 주요섭</t>
+  </si>
+  <si>
+    <t>생산자동화시스템및실습 1 정영태</t>
+  </si>
+  <si>
+    <t>생산제조공학 1 오성훈</t>
+  </si>
+  <si>
+    <t>생산제조공학 2 오성훈</t>
+  </si>
+  <si>
+    <t>생체유체역학 1 정진무</t>
+  </si>
+  <si>
+    <t>서양건축사 1 민상충</t>
+  </si>
+  <si>
+    <t>서양건축사 2 성호진</t>
+  </si>
+  <si>
+    <t>소셜미디어콘텐츠개발 1 진혜련</t>
+  </si>
+  <si>
+    <t>소프트웨어개발프로세스 1 노혜민</t>
+  </si>
+  <si>
+    <t>소프트웨어공학캡스톤프로젝트 1 김순태</t>
+  </si>
+  <si>
+    <t>소프트웨어품질및테스팅 1 이지현</t>
+  </si>
+  <si>
+    <t>수공설계 1 김대하</t>
+  </si>
+  <si>
+    <t>수리학 2 1 유홍열</t>
+  </si>
+  <si>
+    <t>수문학 2 김대하</t>
+  </si>
+  <si>
+    <t>수질공학 1 김세민</t>
+  </si>
+  <si>
+    <t>수치해법 1 이교우</t>
+  </si>
+  <si>
+    <t>수학 1 2 정수미</t>
+  </si>
+  <si>
+    <t>수학 1 6 김선미</t>
+  </si>
+  <si>
+    <t>수학 1 7 이광철</t>
+  </si>
+  <si>
+    <t>수학 1 9 이광철</t>
+  </si>
+  <si>
+    <t>수학 1 12 김선미</t>
+  </si>
+  <si>
+    <t>수학 1 15 이미성</t>
+  </si>
+  <si>
+    <t>수학 1 16 이광철</t>
+  </si>
+  <si>
+    <t>수학 1 18 이선영</t>
+  </si>
+  <si>
+    <t>수학 1 24 소회정</t>
+  </si>
+  <si>
+    <t>수학 1 33 이미성</t>
+  </si>
+  <si>
+    <t>신재생에너지개론 1 이기태</t>
+  </si>
+  <si>
+    <t>알고리즘과단계적사고 3 유기형</t>
+  </si>
+  <si>
+    <t>양자공학수학 1 1 김태환</t>
+  </si>
+  <si>
+    <t>양자시스템공학캡스톤프로젝트 1 유승화</t>
+  </si>
+  <si>
+    <t>양자시스템공학특론 1 송문원</t>
+  </si>
+  <si>
+    <t>양자시스템전산해석 1 서준호</t>
+  </si>
+  <si>
+    <t>에너지저장변환소재 1 이기태</t>
+  </si>
+  <si>
+    <t>열역학 3 최낙정</t>
+  </si>
+  <si>
+    <t>열전달 2 박찬우</t>
+  </si>
+  <si>
+    <t>영문독해 2 이정진</t>
+  </si>
+  <si>
+    <t>영문독해 3 서홍원</t>
+  </si>
+  <si>
+    <t>영문독해 5 이영화</t>
+  </si>
+  <si>
+    <t>영어회화 2 전은영</t>
+  </si>
+  <si>
+    <t>우주궤도역학 1 노태수</t>
+  </si>
+  <si>
+    <t>원자로열수력학 1 1 전준구</t>
+  </si>
+  <si>
+    <t>원자로이론 1 이윤희</t>
+  </si>
+  <si>
+    <t>웹프로그래밍기초 5 김형근</t>
+  </si>
+  <si>
+    <t>유기화학 1 10 이명훈</t>
+  </si>
+  <si>
+    <t>응용열역학 1 이교우</t>
+  </si>
+  <si>
+    <t>의료기기법규및안전관리 1 고태식</t>
+  </si>
+  <si>
+    <t>의료영상 2 1 고태식</t>
+  </si>
+  <si>
+    <t>의용고분자실습 1 1 송정은</t>
+  </si>
+  <si>
+    <t>이산수학 1 이정휴</t>
+  </si>
+  <si>
+    <t>인공지능 2 류덕산</t>
+  </si>
+  <si>
+    <t>일반화학 1 1 이범주</t>
+  </si>
+  <si>
+    <t>일반화학 1 9 임수만</t>
+  </si>
+  <si>
+    <t>일반화학 1 11 이동원</t>
+  </si>
+  <si>
+    <t>일반화학 1 13 안병국</t>
+  </si>
+  <si>
+    <t>임베디드시스템개론 1 조재혁</t>
+  </si>
+  <si>
+    <t>자동차재료 1 최장기</t>
+  </si>
+  <si>
+    <t>자바프로그래밍 1 박석우</t>
+  </si>
+  <si>
+    <t>재활공학및실습 1 유미</t>
+  </si>
+  <si>
+    <t>전기전자개론 1 임규만</t>
+  </si>
+  <si>
+    <t>전기전자응용시스템및실험 1 유인호</t>
+  </si>
+  <si>
+    <t>전산항공드론기초 1 조해성</t>
+  </si>
+  <si>
+    <t>전산항공드론심화 1 조해성</t>
+  </si>
+  <si>
+    <t>전산화구조해석및실습 1 김태현</t>
+  </si>
+  <si>
+    <t>전자공학개론 1 박광욱</t>
+  </si>
+  <si>
+    <t>전자정보용고분자 1 이명훈</t>
+  </si>
+  <si>
+    <t>제어계측공학기초 1 박찬희</t>
+  </si>
+  <si>
+    <t>젠더와사회 1 정미경</t>
+  </si>
+  <si>
+    <t>종합설계 3 김필기</t>
+  </si>
+  <si>
+    <t>종합설계 4 정진무</t>
+  </si>
+  <si>
+    <t>창의적공학설계 3 양수현</t>
+  </si>
+  <si>
+    <t>철골구조학 2 1 양철민</t>
+  </si>
+  <si>
+    <t>철근콘크리트구조해석 2 1 유기표</t>
+  </si>
+  <si>
+    <t>철근콘크리트구조해석 2 2 유기표</t>
+  </si>
+  <si>
+    <t>철학의이해 1 이선</t>
+  </si>
+  <si>
+    <t>초급물리학 4 윤원주</t>
+  </si>
+  <si>
+    <t>초급프랑스어 2 유지은</t>
+  </si>
+  <si>
+    <t>측량학실습 1 박근렬</t>
+  </si>
+  <si>
+    <t>측량학실습 2 박근렬</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 1 안동언</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 2 강래형</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 3 윤성일</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 5 유소월</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 6 김대중</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 7 이준환</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 8 박원길</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 9 최준용</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 11 안동언</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 12 김형진</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 17 김대중</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 18 안계현</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 21 임준우</t>
+  </si>
+  <si>
+    <t>컴퓨터과학과코딩 22 이진휴</t>
+  </si>
+  <si>
+    <t>컴퓨터그래픽스기초 1 장한두</t>
+  </si>
+  <si>
+    <t>토목재료및실험 1 이재준</t>
+  </si>
+  <si>
+    <t>토목재료및실험 2 이재준</t>
+  </si>
+  <si>
+    <t>토질역학 2 1 김성수</t>
+  </si>
+  <si>
+    <t>통계적사고와사회 1 박원란</t>
+  </si>
+  <si>
+    <t>통계적사고와사회 3 정선화</t>
+  </si>
+  <si>
+    <t>풍력터빈공력설계 1 유기완</t>
+  </si>
+  <si>
+    <t>프로그래밍언어론 3 노혜민</t>
+  </si>
+  <si>
+    <t>*프리젠테이션기법의이해 1 정수경</t>
+  </si>
+  <si>
+    <t>*프리젠테이션기법의이해 2 정수경</t>
+  </si>
+  <si>
+    <t>*프리젠테이션기법의이해 3 정수경</t>
+  </si>
+  <si>
+    <t>플랜트용접설계 1 정진무</t>
+  </si>
+  <si>
+    <t>플랜트장치설계 1 정진무</t>
+  </si>
+  <si>
+    <t>한국건축사 1 김윤상</t>
+  </si>
+  <si>
+    <t>한국사의이해 4 이선아</t>
+  </si>
+  <si>
+    <t>한국사의이해 5 임혜영</t>
+  </si>
+  <si>
+    <t>항공공학개론 1 강승희</t>
+  </si>
+  <si>
+    <t>항공드론CAD응용 1 이준희</t>
+  </si>
+  <si>
+    <t>항공드론기초설계 1 정인호</t>
+  </si>
+  <si>
+    <t>항공드론센서공학 1 최성만</t>
+  </si>
+  <si>
+    <t>항공드론제어설계 1 유기호</t>
+  </si>
+  <si>
+    <t>항공우주진동및설계 1 조해성</t>
+  </si>
+  <si>
+    <t>해양및해안공학개론 1 황규남</t>
+  </si>
+  <si>
+    <t>핵융합공학 1 1 홍봉근</t>
+  </si>
+  <si>
+    <t>*현대디자인의이해 1 정주연</t>
+  </si>
+  <si>
+    <t>화학기초 1 박현주</t>
+  </si>
+  <si>
+    <t>화학기초 2 유승호</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공선택</t>
+  </si>
+  <si>
+    <t>조해성</t>
+  </si>
+  <si>
+    <t>전주:공과대학 9호관 303</t>
+  </si>
+  <si>
+    <t>월 6-A,월 6-B,월 7-A,월 7-B,수 6-A,수 6-B</t>
+  </si>
+  <si>
+    <t>전산항공드론심화</t>
+  </si>
+  <si>
+    <t>플립러닝</t>
+  </si>
+  <si>
+    <t>월 8-A,월 8-B,월 9-A,월 9-B,수 8-A,수 8-B</t>
+  </si>
+  <si>
+    <t>항공우주공 4</t>
+  </si>
+  <si>
+    <t>CLJToJGYjM83hnvOFQ0e</t>
+  </si>
+  <si>
+    <t>전산화구조해석및실습</t>
+  </si>
+  <si>
+    <t>김태현</t>
+  </si>
+  <si>
+    <t>상대평가Ⅱ</t>
+  </si>
+  <si>
+    <t>전주:공과대학 1호관 322</t>
+  </si>
+  <si>
+    <t>월 6-A,월 6-B,월 7-A,월 7-B,수 6-A,수 6-B,수 7-A,수 7-B</t>
+  </si>
+  <si>
+    <t>토목/환경/자원.에너지공학부(토목공학) 4</t>
+  </si>
+  <si>
+    <t>PS4lAC6qoSSqm3XvgKST</t>
+  </si>
+  <si>
+    <t>전자공학개론</t>
+  </si>
+  <si>
+    <t>박광욱</t>
+  </si>
+  <si>
+    <t>전주:공과대학 5호관 302</t>
+  </si>
+  <si>
+    <t>신소재(전자재료) 2</t>
+  </si>
+  <si>
+    <t>K22XZkM65FmAWPL16dlQ</t>
+  </si>
+  <si>
+    <t>전자정보용고분자</t>
+  </si>
+  <si>
+    <t>이명훈</t>
+  </si>
+  <si>
+    <t>전주:공과대학 9호관 306</t>
+  </si>
+  <si>
+    <t>화 6-A,화 6-B,화 7-A,화 7-B,화 8-A,화 8-B</t>
+  </si>
+  <si>
+    <t>고분자섬유나노공학부(고분자나노공학) 4</t>
+  </si>
+  <si>
+    <t>SYKv8kDllyEsWbEzbXbV</t>
+  </si>
+  <si>
+    <t>제어계측공학기초</t>
+  </si>
+  <si>
+    <t>박찬희</t>
+  </si>
+  <si>
+    <t>전주:공과대학 9호관 205</t>
+  </si>
+  <si>
+    <t>월 1-A,월 1-B,월 2-A,월 2-B,수 1-A,수 1-B</t>
+  </si>
+  <si>
+    <t>기계설계(나노바이오) 3</t>
+  </si>
+  <si>
+    <t>sFdYeQzDvZ9tUgS5ZINQ</t>
+  </si>
+  <si>
+    <t>젠더와사회</t>
+  </si>
+  <si>
+    <t>정미경</t>
+  </si>
+  <si>
+    <t>전주:공과대학 1호관 149</t>
+  </si>
+  <si>
+    <t>4Wd9GPiGuR7LnKJnNs6Y</t>
+  </si>
+  <si>
+    <t>종합설계</t>
+  </si>
+  <si>
+    <t>김필기</t>
+  </si>
+  <si>
+    <t>전주:공과대학 9호관 206</t>
+  </si>
+  <si>
+    <t>월 8-A,월 8-B,월 9-A,월 9-B,월 10-A,월 10-B,수 8-A,수 8-B,수 9-A,수 9-B,수 10-A,수 10-B</t>
+  </si>
+  <si>
+    <t>기계설계(기계설계) 4</t>
+  </si>
+  <si>
+    <t>IvtNyr7lowg5sTwthjD8</t>
+  </si>
+  <si>
+    <t>정진무</t>
+  </si>
+  <si>
+    <t>uKy5q69U5DdiPe1eEnv3</t>
+  </si>
+  <si>
+    <t>해시</t>
+  </si>
+  <si>
+    <t>이수구분</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허용</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인원</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정원</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공개</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여부</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개사유</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의언어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(Language)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교양영역</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교양영역</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세구분</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교양</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평가구분</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업운영방향</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강대상</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설강</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여부</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수업</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1075,6 +2340,58 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1106,7 +2423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,6 +2445,21 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,10 +2763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView topLeftCell="G231" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -49575,24 +50908,2134 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="V1:V714" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4EEED5-1A92-EE4A-8C2A-C6A58D4B8672}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD3DBB-DDDB-734E-A8AB-6BCEABE5E267}">
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" customWidth="1"/>
+    <col min="26" max="26" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
+    <row r="1" spans="1:26" ht="144">
+      <c r="A1" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="9">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="9">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="9">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" s="9">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>80</v>
+      </c>
+      <c r="D7" s="9">
+        <v>80</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="9">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9" s="9">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4EEED5-1A92-EE4A-8C2A-C6A58D4B8672}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F214"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>377</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>385</v>
+      </c>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>388</v>
+      </c>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>396</v>
+      </c>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>405</v>
+      </c>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>412</v>
+      </c>
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>414</v>
+      </c>
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>416</v>
+      </c>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>418</v>
+      </c>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>419</v>
+      </c>
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>422</v>
+      </c>
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>423</v>
+      </c>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>424</v>
+      </c>
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>425</v>
+      </c>
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>426</v>
+      </c>
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>427</v>
+      </c>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>428</v>
+      </c>
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>429</v>
+      </c>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>431</v>
+      </c>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>432</v>
+      </c>
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>433</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>435</v>
+      </c>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>436</v>
+      </c>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>440</v>
+      </c>
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>441</v>
+      </c>
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>442</v>
+      </c>
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>443</v>
+      </c>
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>444</v>
+      </c>
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>445</v>
+      </c>
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>446</v>
+      </c>
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>447</v>
+      </c>
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>448</v>
+      </c>
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>450</v>
+      </c>
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>451</v>
+      </c>
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>452</v>
+      </c>
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>453</v>
+      </c>
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>455</v>
+      </c>
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>456</v>
+      </c>
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>457</v>
+      </c>
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>458</v>
+      </c>
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>459</v>
+      </c>
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>460</v>
+      </c>
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>461</v>
+      </c>
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>462</v>
+      </c>
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>463</v>
+      </c>
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>464</v>
+      </c>
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>465</v>
+      </c>
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>466</v>
+      </c>
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>467</v>
+      </c>
+      <c r="B141" s="9">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>468</v>
+      </c>
+      <c r="B142" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>469</v>
+      </c>
+      <c r="B143" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>470</v>
+      </c>
+      <c r="B144" s="9">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>471</v>
+      </c>
+      <c r="B145" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>472</v>
+      </c>
+      <c r="B146" s="9">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>473</v>
+      </c>
+      <c r="B147" s="9">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>474</v>
+      </c>
+      <c r="B148" s="9">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>475</v>
+      </c>
+      <c r="B149" s="9">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>476</v>
+      </c>
+      <c r="B150" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>477</v>
+      </c>
+      <c r="B151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>478</v>
+      </c>
+      <c r="B152" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>479</v>
+      </c>
+      <c r="B153" s="9">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>480</v>
+      </c>
+      <c r="B154" s="9">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>481</v>
+      </c>
+      <c r="B155" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>482</v>
+      </c>
+      <c r="B156" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>483</v>
+      </c>
+      <c r="B157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>484</v>
+      </c>
+      <c r="B158" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="9">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>486</v>
+      </c>
+      <c r="B160" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>487</v>
+      </c>
+      <c r="B161" s="9">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>488</v>
+      </c>
+      <c r="B162" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>489</v>
+      </c>
+      <c r="B163" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>490</v>
+      </c>
+      <c r="B164" s="9">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>492</v>
+      </c>
+      <c r="B166" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>493</v>
+      </c>
+      <c r="B167" s="9">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>494</v>
+      </c>
+      <c r="B168" s="9">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>495</v>
+      </c>
+      <c r="B169" s="9">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>496</v>
+      </c>
+      <c r="B170" s="9">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>497</v>
+      </c>
+      <c r="B171" s="9">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>498</v>
+      </c>
+      <c r="B172" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>499</v>
+      </c>
+      <c r="B173" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>500</v>
+      </c>
+      <c r="B174" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>501</v>
+      </c>
+      <c r="B175" s="9">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>502</v>
+      </c>
+      <c r="B176" s="9">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>503</v>
+      </c>
+      <c r="B177" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>504</v>
+      </c>
+      <c r="B178" s="9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>505</v>
+      </c>
+      <c r="B179" s="9">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>506</v>
+      </c>
+      <c r="B180" s="9">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>507</v>
+      </c>
+      <c r="B181" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>508</v>
+      </c>
+      <c r="B182" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>509</v>
+      </c>
+      <c r="B183" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>510</v>
+      </c>
+      <c r="B184" s="9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>511</v>
+      </c>
+      <c r="B185" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>512</v>
+      </c>
+      <c r="B186" s="9">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>513</v>
+      </c>
+      <c r="B187" s="9">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>514</v>
+      </c>
+      <c r="B188" s="9">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>515</v>
+      </c>
+      <c r="B189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>516</v>
+      </c>
+      <c r="B190" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>517</v>
+      </c>
+      <c r="B191" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>518</v>
+      </c>
+      <c r="B192" s="9">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>519</v>
+      </c>
+      <c r="B193" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>520</v>
+      </c>
+      <c r="B194" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>521</v>
+      </c>
+      <c r="B195" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>522</v>
+      </c>
+      <c r="B196" s="9">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>523</v>
+      </c>
+      <c r="B197" s="9">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>524</v>
+      </c>
+      <c r="B198" s="9">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>525</v>
+      </c>
+      <c r="B199" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>526</v>
+      </c>
+      <c r="B200" s="9">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>527</v>
+      </c>
+      <c r="B201" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>528</v>
+      </c>
+      <c r="B202" s="9">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>529</v>
+      </c>
+      <c r="B203" s="9">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>530</v>
+      </c>
+      <c r="B204" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>531</v>
+      </c>
+      <c r="B205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>532</v>
+      </c>
+      <c r="B206" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>533</v>
+      </c>
+      <c r="B207" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>534</v>
+      </c>
+      <c r="B208" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>535</v>
+      </c>
+      <c r="B209" s="9">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>536</v>
+      </c>
+      <c r="B210" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>537</v>
+      </c>
+      <c r="B211" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>538</v>
+      </c>
+      <c r="B212" s="9">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>539</v>
+      </c>
+      <c r="B213" s="9">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>540</v>
+      </c>
+      <c r="B214" s="9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
